--- a/Project_Car/drivers_2026.xlsx
+++ b/Project_Car/drivers_2026.xlsx
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>100</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>95</v>
